--- a/ocms/target/test-classes/DownloadedFiles/Recipient.xlsx
+++ b/ocms/target/test-classes/DownloadedFiles/Recipient.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve">98765</t>
   </si>
   <si>
-    <t xml:space="preserve">Fax Address</t>
+    <t xml:space="preserve">Fax </t>
   </si>
   <si>
     <t xml:space="preserve">Recipient</t>
@@ -206,7 +206,7 @@
   </sheetViews>
   <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="11.714285714285714" bestFit="1"/>
+    <col min="1" max="1" customWidth="1" width="10.714285714285714" bestFit="1"/>
     <col min="2" max="2" customWidth="1" width="9.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="10.714285714285714" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="22.714285714285715" bestFit="1"/>
@@ -431,7 +431,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2">
-        <v>43630.472407407404</v>
+        <v>43630.69965277778</v>
       </c>
     </row>
   </sheetData>
